--- a/Document/Summary_KK.xlsx
+++ b/Document/Summary_KK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Lecture\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44816F-3682-4DC2-BBA5-4BB8738CEAEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98671134-B6D3-4227-95C8-A9DD3309442A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="16950" xr2:uid="{A97E501B-34A8-4193-A5F9-10C33278BBF1}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="38640" windowHeight="21240" xr2:uid="{A97E501B-34A8-4193-A5F9-10C33278BBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Regression Algorithms</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,39 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Regression-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Instance-based-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Regularization-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Decision-Tree-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Bayesian-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Artificial-Neural-Network-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Clustering-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Assoication-Rule-Learning-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Dimensional-Reduction-Algorithms.png' width='150'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Ensemble-Algorithms.png' width='150'&gt; </t>
+  </si>
+  <si>
+    <t>&lt;img src='https://3qeqpr26caki16dnhd19sv6by6v-wpengine.netdna-ssl.com/wp-content/uploads/2013/11/Deep-Learning-Algorithms.png' width='150'&gt;</t>
   </si>
 </sst>
 </file>
@@ -609,9 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9C62B5-5D30-49CE-933A-53D786ACB782}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -750,6 +785,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>32</v>
@@ -829,7 +884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>55</v>
       </c>
@@ -837,7 +892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>56</v>
       </c>
@@ -845,7 +900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>57</v>
       </c>
@@ -853,19 +908,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
